--- a/data/trans_dic/P04B1_2_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_2_2023-Clase-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.6118553918474502</v>
+        <v>0.6118553918474501</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.6755791215533905</v>
+        <v>0.6755791215533906</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.6418497055610445</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5655178231741577</v>
+        <v>0.5654703400357183</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6333240776092924</v>
+        <v>0.6319355633580886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6141698259215935</v>
+        <v>0.6115735643565428</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6535748166312639</v>
+        <v>0.654128697765916</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.712781445221775</v>
+        <v>0.7112817970518981</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6690073237836122</v>
+        <v>0.670267534163526</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.6521304501159311</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6460419635016702</v>
+        <v>0.64604196350167</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.6492879660999782</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6087566170245033</v>
+        <v>0.6038251351785712</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6079372446628865</v>
+        <v>0.6074045134017093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6203490056517401</v>
+        <v>0.6177099454443875</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6968435411079051</v>
+        <v>0.6965628148755294</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6879477690286855</v>
+        <v>0.686411441985718</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6776597258271033</v>
+        <v>0.6811357164954502</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6395895613721372</v>
+        <v>0.6395895613721373</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.6043899041454115</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6296033266566936</v>
+        <v>0.6296033266566935</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5936788661003262</v>
+        <v>0.5932469300914377</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5417408145013993</v>
+        <v>0.5461735190468578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5947659605596345</v>
+        <v>0.5901640044490281</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6843073552191079</v>
+        <v>0.6815924795067778</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6622331511054146</v>
+        <v>0.6674438739107155</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6650861530942712</v>
+        <v>0.6644158102677749</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.603852615466249</v>
+        <v>0.5988152624782206</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.650604204601679</v>
+        <v>0.6470420653543478</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6292582084627169</v>
+        <v>0.6309100305763395</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6670189241398098</v>
+        <v>0.66111848356619</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7054643491477219</v>
+        <v>0.7035287252233355</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6725597014395154</v>
+        <v>0.6739605443624672</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6024441146416663</v>
+        <v>0.6024441146416661</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.5538362926801034</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5735602849042046</v>
+        <v>0.5735602849042045</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5603187008564773</v>
+        <v>0.5626808811523935</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.522402466218271</v>
+        <v>0.5246586577584923</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5462492534109318</v>
+        <v>0.5463870657702915</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6460800824851423</v>
+        <v>0.6463609275843352</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5807334434507009</v>
+        <v>0.5841457212568893</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5968734714291569</v>
+        <v>0.5959912491924574</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.5811593885497139</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5885116777950276</v>
+        <v>0.5885116777950277</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.512494860850942</v>
+        <v>0.5027067409330601</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5494590256864945</v>
+        <v>0.5487173736547011</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5528418704634008</v>
+        <v>0.5559420611928448</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7148635272514334</v>
+        <v>0.7009861808529467</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6130160107802992</v>
+        <v>0.6143325371859744</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6231080343892648</v>
+        <v>0.6221547641470986</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.6189916555124977</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6228752709278744</v>
+        <v>0.6228752709278742</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6094412505474218</v>
+        <v>0.6092390140245904</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6048542667585071</v>
+        <v>0.6027397828561143</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6110490837852321</v>
+        <v>0.6109826098689585</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6479724112507882</v>
+        <v>0.6457164299870046</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6342345267329195</v>
+        <v>0.6318787985750713</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6344568874143942</v>
+        <v>0.6338611809019133</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>309695</v>
+        <v>309669</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>308421</v>
+        <v>307744</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>635430</v>
+        <v>632744</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>357917</v>
+        <v>358220</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>347115</v>
+        <v>346385</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>692166</v>
+        <v>693470</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>294159</v>
+        <v>291776</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>257244</v>
+        <v>257019</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>562256</v>
+        <v>559864</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>336723</v>
+        <v>336588</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>291100</v>
+        <v>290450</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>614200</v>
+        <v>617351</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>279986</v>
+        <v>279782</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>101192</v>
+        <v>102020</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>391595</v>
+        <v>388565</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>322728</v>
+        <v>321447</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>123699</v>
+        <v>124672</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>437894</v>
+        <v>437453</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>682863</v>
+        <v>677166</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>559678</v>
+        <v>556613</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1252907</v>
+        <v>1256196</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>754294</v>
+        <v>747621</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>606871</v>
+        <v>605206</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1339124</v>
+        <v>1341913</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>317635</v>
+        <v>318974</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>433668</v>
+        <v>435541</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>763123</v>
+        <v>763316</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>366251</v>
+        <v>366410</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>482091</v>
+        <v>484924</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>833847</v>
+        <v>832614</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>120736</v>
+        <v>118430</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>463898</v>
+        <v>463272</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>596995</v>
+        <v>600343</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>168411</v>
+        <v>165142</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>517558</v>
+        <v>518669</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>672873</v>
+        <v>671844</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2093896</v>
+        <v>2093201</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2196580</v>
+        <v>2188901</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4318497</v>
+        <v>4318027</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2226280</v>
+        <v>2218529</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2303277</v>
+        <v>2294722</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4483928</v>
+        <v>4479718</v>
       </c>
     </row>
     <row r="32">
